--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Fgfr2</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H2">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I2">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J2">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.606909080009128</v>
+        <v>0.6105093333333332</v>
       </c>
       <c r="N2">
-        <v>0.606909080009128</v>
+        <v>1.831528</v>
       </c>
       <c r="O2">
-        <v>0.1562510229214423</v>
+        <v>0.1519928013857482</v>
       </c>
       <c r="P2">
-        <v>0.1562510229214423</v>
+        <v>0.1519928013857482</v>
       </c>
       <c r="Q2">
-        <v>0.3866387154471267</v>
+        <v>0.4079038744453332</v>
       </c>
       <c r="R2">
-        <v>0.3866387154471267</v>
+        <v>3.671134870007999</v>
       </c>
       <c r="S2">
-        <v>0.04664719968528488</v>
+        <v>0.03976933369619662</v>
       </c>
       <c r="T2">
-        <v>0.04664719968528488</v>
+        <v>0.03976933369619663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H3">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I3">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J3">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.2140100333434</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N3">
-        <v>3.2140100333434</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O3">
-        <v>0.8274589587325535</v>
+        <v>0.8298192952305696</v>
       </c>
       <c r="P3">
-        <v>0.8274589587325535</v>
+        <v>0.8298192952305695</v>
       </c>
       <c r="Q3">
-        <v>2.047523676375676</v>
+        <v>2.226990374070333</v>
       </c>
       <c r="R3">
-        <v>2.047523676375676</v>
+        <v>20.042913366633</v>
       </c>
       <c r="S3">
-        <v>0.2470296997593508</v>
+        <v>0.2171244964148785</v>
       </c>
       <c r="T3">
-        <v>0.2470296997593508</v>
+        <v>0.2171244964148785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.637062005138087</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H4">
-        <v>0.637062005138087</v>
+        <v>2.004411</v>
       </c>
       <c r="I4">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J4">
-        <v>0.2985401235340233</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0632735700724076</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N4">
-        <v>0.0632735700724076</v>
+        <v>0.001493</v>
       </c>
       <c r="O4">
-        <v>0.01629001834600423</v>
+        <v>0.0001238994175731532</v>
       </c>
       <c r="P4">
-        <v>0.01629001834600423</v>
+        <v>0.0001238994175731531</v>
       </c>
       <c r="Q4">
-        <v>0.04030918742257324</v>
+        <v>0.0003325095136666666</v>
       </c>
       <c r="R4">
-        <v>0.04030918742257324</v>
+        <v>0.002992585623</v>
       </c>
       <c r="S4">
-        <v>0.004863224089387609</v>
+        <v>3.241862270651694E-05</v>
       </c>
       <c r="T4">
-        <v>0.004863224089387609</v>
+        <v>3.241862270651694E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.841166550712024</v>
+        <v>0.6681369999999999</v>
       </c>
       <c r="H5">
-        <v>0.841166550712024</v>
+        <v>2.004411</v>
       </c>
       <c r="I5">
-        <v>0.3941876362691316</v>
+        <v>0.2616527449564177</v>
       </c>
       <c r="J5">
-        <v>0.3941876362691316</v>
+        <v>0.2616527449564178</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.606909080009128</v>
+        <v>0.07255766666666667</v>
       </c>
       <c r="N5">
-        <v>0.606909080009128</v>
+        <v>0.217673</v>
       </c>
       <c r="O5">
-        <v>0.1562510229214423</v>
+        <v>0.01806400396610915</v>
       </c>
       <c r="P5">
-        <v>0.1562510229214423</v>
+        <v>0.01806400396610915</v>
       </c>
       <c r="Q5">
-        <v>0.510511617427086</v>
+        <v>0.04847846173366666</v>
       </c>
       <c r="R5">
-        <v>0.510511617427086</v>
+        <v>0.436306155603</v>
       </c>
       <c r="S5">
-        <v>0.06159222139003723</v>
+        <v>0.004726496222636076</v>
       </c>
       <c r="T5">
-        <v>0.06159222139003723</v>
+        <v>0.004726496222636077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.841166550712024</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H6">
-        <v>0.841166550712024</v>
+        <v>3.010202</v>
       </c>
       <c r="I6">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J6">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.2140100333434</v>
+        <v>0.6105093333333332</v>
       </c>
       <c r="N6">
-        <v>3.2140100333434</v>
+        <v>1.831528</v>
       </c>
       <c r="O6">
-        <v>0.8274589587325535</v>
+        <v>0.1519928013857482</v>
       </c>
       <c r="P6">
-        <v>0.8274589587325535</v>
+        <v>0.1519928013857482</v>
       </c>
       <c r="Q6">
-        <v>2.703517733701305</v>
+        <v>0.6125854720728887</v>
       </c>
       <c r="R6">
-        <v>2.703517733701305</v>
+        <v>5.513269248655999</v>
       </c>
       <c r="S6">
-        <v>0.3261740910525022</v>
+        <v>0.05972514011894689</v>
       </c>
       <c r="T6">
-        <v>0.3261740910525022</v>
+        <v>0.0597251401189469</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.841166550712024</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H7">
-        <v>0.841166550712024</v>
+        <v>3.010202</v>
       </c>
       <c r="I7">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J7">
-        <v>0.3941876362691316</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0632735700724076</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N7">
-        <v>0.0632735700724076</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O7">
-        <v>0.01629001834600423</v>
+        <v>0.8298192952305696</v>
       </c>
       <c r="P7">
-        <v>0.01629001834600423</v>
+        <v>0.8298192952305695</v>
       </c>
       <c r="Q7">
-        <v>0.05322361068904265</v>
+        <v>3.344469212156223</v>
       </c>
       <c r="R7">
-        <v>0.05322361068904265</v>
+        <v>30.100222909406</v>
       </c>
       <c r="S7">
-        <v>0.006421323826592196</v>
+        <v>0.3260751379617555</v>
       </c>
       <c r="T7">
-        <v>0.006421323826592196</v>
+        <v>0.3260751379617555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.655695680519691</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H8">
-        <v>0.655695680519691</v>
+        <v>3.010202</v>
       </c>
       <c r="I8">
-        <v>0.3072722401968451</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J8">
-        <v>0.3072722401968451</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.606909080009128</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N8">
-        <v>0.606909080009128</v>
+        <v>0.001493</v>
       </c>
       <c r="O8">
-        <v>0.1562510229214423</v>
+        <v>0.0001238994175731532</v>
       </c>
       <c r="P8">
-        <v>0.1562510229214423</v>
+        <v>0.0001238994175731531</v>
       </c>
       <c r="Q8">
-        <v>0.3979476622301648</v>
+        <v>0.0004993590651111111</v>
       </c>
       <c r="R8">
-        <v>0.3979476622301648</v>
+        <v>0.004494231585999999</v>
       </c>
       <c r="S8">
-        <v>0.04801160184612015</v>
+        <v>4.868592464739154E-05</v>
       </c>
       <c r="T8">
-        <v>0.04801160184612015</v>
+        <v>4.868592464739153E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.655695680519691</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H9">
-        <v>0.655695680519691</v>
+        <v>3.010202</v>
       </c>
       <c r="I9">
-        <v>0.3072722401968451</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="J9">
-        <v>0.3072722401968451</v>
+        <v>0.3929471631183917</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.2140100333434</v>
+        <v>0.07255766666666667</v>
       </c>
       <c r="N9">
-        <v>3.2140100333434</v>
+        <v>0.217673</v>
       </c>
       <c r="O9">
-        <v>0.8274589587325535</v>
+        <v>0.01806400396610915</v>
       </c>
       <c r="P9">
-        <v>0.8274589587325535</v>
+        <v>0.01806400396610915</v>
       </c>
       <c r="Q9">
-        <v>2.107412496010215</v>
+        <v>0.07280441110511111</v>
       </c>
       <c r="R9">
-        <v>2.107412496010215</v>
+        <v>0.655239699946</v>
       </c>
       <c r="S9">
-        <v>0.2542551679207005</v>
+        <v>0.007098199113041968</v>
       </c>
       <c r="T9">
-        <v>0.2542551679207005</v>
+        <v>0.007098199113041968</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.060067</v>
+      </c>
+      <c r="I10">
+        <v>0.007841054270455084</v>
+      </c>
+      <c r="J10">
+        <v>0.007841054270455085</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6105093333333332</v>
+      </c>
+      <c r="N10">
+        <v>1.831528</v>
+      </c>
+      <c r="O10">
+        <v>0.1519928013857482</v>
+      </c>
+      <c r="P10">
+        <v>0.1519928013857482</v>
+      </c>
+      <c r="Q10">
+        <v>0.01222382137511111</v>
+      </c>
+      <c r="R10">
+        <v>0.110014392376</v>
+      </c>
+      <c r="S10">
+        <v>0.001191783804384152</v>
+      </c>
+      <c r="T10">
+        <v>0.001191783804384152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.060067</v>
+      </c>
+      <c r="I11">
+        <v>0.007841054270455084</v>
+      </c>
+      <c r="J11">
+        <v>0.007841054270455085</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.333134333333334</v>
+      </c>
+      <c r="N11">
+        <v>9.999403000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.8298192952305696</v>
+      </c>
+      <c r="P11">
+        <v>0.8298192952305695</v>
+      </c>
+      <c r="Q11">
+        <v>0.06673712666677778</v>
+      </c>
+      <c r="R11">
+        <v>0.6006341400010001</v>
+      </c>
+      <c r="S11">
+        <v>0.006506658128573686</v>
+      </c>
+      <c r="T11">
+        <v>0.006506658128573687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.060067</v>
+      </c>
+      <c r="I12">
+        <v>0.007841054270455084</v>
+      </c>
+      <c r="J12">
+        <v>0.007841054270455085</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.0004976666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.001493</v>
+      </c>
+      <c r="O12">
+        <v>0.0001238994175731532</v>
+      </c>
+      <c r="P12">
+        <v>0.0001238994175731531</v>
+      </c>
+      <c r="Q12">
+        <v>9.964447888888888E-06</v>
+      </c>
+      <c r="R12">
+        <v>8.968003100000001E-05</v>
+      </c>
+      <c r="S12">
+        <v>9.715020572688702E-07</v>
+      </c>
+      <c r="T12">
+        <v>9.715020572688702E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.060067</v>
+      </c>
+      <c r="I13">
+        <v>0.007841054270455084</v>
+      </c>
+      <c r="J13">
+        <v>0.007841054270455085</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.07255766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.217673</v>
+      </c>
+      <c r="O13">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="P13">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="Q13">
+        <v>0.001452773787888889</v>
+      </c>
+      <c r="R13">
+        <v>0.013074964091</v>
+      </c>
+      <c r="S13">
+        <v>0.0001416408354399778</v>
+      </c>
+      <c r="T13">
+        <v>0.0001416408354399778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.655695680519691</v>
-      </c>
-      <c r="H10">
-        <v>0.655695680519691</v>
-      </c>
-      <c r="I10">
-        <v>0.3072722401968451</v>
-      </c>
-      <c r="J10">
-        <v>0.3072722401968451</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.0632735700724076</v>
-      </c>
-      <c r="N10">
-        <v>0.0632735700724076</v>
-      </c>
-      <c r="O10">
-        <v>0.01629001834600423</v>
-      </c>
-      <c r="P10">
-        <v>0.01629001834600423</v>
-      </c>
-      <c r="Q10">
-        <v>0.04148820658753765</v>
-      </c>
-      <c r="R10">
-        <v>0.04148820658753765</v>
-      </c>
-      <c r="S10">
-        <v>0.005005470430024424</v>
-      </c>
-      <c r="T10">
-        <v>0.005005470430024424</v>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H14">
+        <v>2.585897</v>
+      </c>
+      <c r="I14">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J14">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6105093333333332</v>
+      </c>
+      <c r="N14">
+        <v>1.831528</v>
+      </c>
+      <c r="O14">
+        <v>0.1519928013857482</v>
+      </c>
+      <c r="P14">
+        <v>0.1519928013857482</v>
+      </c>
+      <c r="Q14">
+        <v>0.5262380845128889</v>
+      </c>
+      <c r="R14">
+        <v>4.736142760616</v>
+      </c>
+      <c r="S14">
+        <v>0.05130654376622049</v>
+      </c>
+      <c r="T14">
+        <v>0.05130654376622049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H15">
+        <v>2.585897</v>
+      </c>
+      <c r="I15">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J15">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.333134333333334</v>
+      </c>
+      <c r="N15">
+        <v>9.999403000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.8298192952305696</v>
+      </c>
+      <c r="P15">
+        <v>0.8298192952305695</v>
+      </c>
+      <c r="Q15">
+        <v>2.873047357721223</v>
+      </c>
+      <c r="R15">
+        <v>25.857426219491</v>
+      </c>
+      <c r="S15">
+        <v>0.2801130027253619</v>
+      </c>
+      <c r="T15">
+        <v>0.2801130027253618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H16">
+        <v>2.585897</v>
+      </c>
+      <c r="I16">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J16">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.0004976666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.001493</v>
+      </c>
+      <c r="O16">
+        <v>0.0001238994175731532</v>
+      </c>
+      <c r="P16">
+        <v>0.0001238994175731531</v>
+      </c>
+      <c r="Q16">
+        <v>0.0004289715801111112</v>
+      </c>
+      <c r="R16">
+        <v>0.003860744221</v>
+      </c>
+      <c r="S16">
+        <v>4.18233681619758E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.182336816197579E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8619656666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.585897</v>
+      </c>
+      <c r="I17">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="J17">
+        <v>0.3375590376547354</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.07255766666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.217673</v>
+      </c>
+      <c r="O17">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="P17">
+        <v>0.01806400396610915</v>
+      </c>
+      <c r="Q17">
+        <v>0.06254221752011112</v>
+      </c>
+      <c r="R17">
+        <v>0.5628799576810001</v>
+      </c>
+      <c r="S17">
+        <v>0.00609766779499113</v>
+      </c>
+      <c r="T17">
+        <v>0.00609766779499113</v>
       </c>
     </row>
   </sheetData>
